--- a/Bin/Server/DataConfig/Excel/Guild.xlsx
+++ b/Bin/Server/DataConfig/Excel/Guild.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cpp\ArkGameFrame\Bin\Server\DataConfig\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="27525" windowHeight="17535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Property1" sheetId="1" r:id="rId1"/>
-    <sheet name="Record" sheetId="2" r:id="rId2"/>
+    <sheet name="DataNode" sheetId="1" r:id="rId1"/>
+    <sheet name="DataTable" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -31,8 +31,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Skill" type="4" refreshedVersion="2" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Skill" type="4" refreshedVersion="2" background="1" saveData="1">
     <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Skill.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -311,12 +311,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -324,8 +324,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -334,6 +334,12 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -525,7 +531,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -545,7 +551,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -553,6 +559,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -815,32 +824,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="5.5" customWidth="1"/>
     <col min="5" max="5" width="8.5" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" customWidth="1"/>
-    <col min="13" max="13" width="22.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" customWidth="1"/>
-    <col min="15" max="15" width="17.1640625" customWidth="1"/>
-    <col min="16" max="16" width="16.1640625" customWidth="1"/>
+    <col min="7" max="8" width="11.625" customWidth="1"/>
+    <col min="9" max="9" width="18.375" customWidth="1"/>
+    <col min="12" max="12" width="19.375" customWidth="1"/>
+    <col min="13" max="13" width="22.625" customWidth="1"/>
+    <col min="14" max="14" width="11.625" customWidth="1"/>
+    <col min="15" max="15" width="17.125" customWidth="1"/>
+    <col min="16" max="16" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -923,7 +932,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>27</v>
       </c>
@@ -1006,7 +1015,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
@@ -1089,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>32</v>
       </c>
@@ -1172,7 +1181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>33</v>
       </c>
@@ -1255,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>34</v>
       </c>
@@ -1338,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>35</v>
       </c>
@@ -1421,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>36</v>
       </c>
@@ -1505,9 +1514,10 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:AA7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:AA7" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1517,16 +1527,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
       <selection sqref="A1:XFD60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1534,7 +1544,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>64</v>
       </c>
@@ -1542,7 +1552,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>65</v>
       </c>
@@ -1550,7 +1560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -1558,7 +1568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -1566,7 +1576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -1574,7 +1584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -1582,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>66</v>
       </c>
@@ -1608,7 +1618,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -1634,7 +1644,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -1642,7 +1652,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1650,7 +1660,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>64</v>
       </c>
@@ -1658,7 +1668,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>65</v>
       </c>
@@ -1666,7 +1676,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -1674,7 +1684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -1682,7 +1692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -1690,7 +1700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -1698,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>66</v>
       </c>
@@ -1742,7 +1752,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -1786,7 +1796,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -1794,7 +1804,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1802,7 +1812,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>64</v>
       </c>
@@ -1810,7 +1820,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>65</v>
       </c>
@@ -1818,7 +1828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
@@ -1826,7 +1836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -1834,7 +1844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
@@ -1842,7 +1852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
@@ -1850,7 +1860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>66</v>
       </c>
@@ -1873,7 +1883,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -1896,7 +1906,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
@@ -1904,7 +1914,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -1912,7 +1922,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>64</v>
       </c>
@@ -1920,7 +1930,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>65</v>
       </c>
@@ -1928,7 +1938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
@@ -1936,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
@@ -1944,7 +1954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
@@ -1952,7 +1962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>34</v>
       </c>
@@ -1960,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
@@ -1995,7 +2005,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>29</v>
       </c>
@@ -2030,7 +2040,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>36</v>
       </c>
@@ -2038,7 +2048,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -2046,7 +2056,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>64</v>
       </c>
@@ -2054,7 +2064,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>65</v>
       </c>
@@ -2062,7 +2072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>31</v>
       </c>
@@ -2070,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>32</v>
       </c>
@@ -2078,7 +2088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>33</v>
       </c>
@@ -2086,7 +2096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>34</v>
       </c>
@@ -2094,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>66</v>
       </c>
@@ -2120,7 +2130,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>29</v>
       </c>
@@ -2146,7 +2156,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>36</v>
       </c>
@@ -2154,7 +2164,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -2162,7 +2172,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>64</v>
       </c>
@@ -2170,7 +2180,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>65</v>
       </c>
@@ -2178,7 +2188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>31</v>
       </c>
@@ -2186,7 +2196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>32</v>
       </c>
@@ -2194,7 +2204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>33</v>
       </c>
@@ -2202,7 +2212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>34</v>
       </c>
@@ -2210,7 +2220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>66</v>
       </c>
@@ -2236,7 +2246,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>29</v>
       </c>
@@ -2262,7 +2272,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>36</v>
       </c>
@@ -2271,15 +2281,16 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 D10:F10 G10 B17 B27 B37 B47 B57 A14:A16 A24:A26 A34:A36 A44:A46 A54:A56 B14:B16 B24:B26 B34:B36 B44:B46 B54:B56 G1:G7 G11:G17 G20:G27 G30:G37 G40:G60 A4:B6 D1:F7 D11:F17 D40:F60 D20:F27 D30:F37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 D10:F10 G10 B17 B27 B37 B47 B57 A14:A16 A24:A26 A34:A36 A44:A46 A54:A56 B14:B16 B24:B26 B34:B36 B44:B46 B54:B56 G1:G7 G11:G17 G20:G27 G30:G37 G40:G60 A4:B6 D1:F7 D11:F17 D40:F60 D20:F27 D30:F37" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L8 L9 L10 A38:D38 E38 F38:H38 A39:D39 F39:H39 A8:A9 A18:A19 A28:A29 A48:A49 A58:A59 B48:B49 L1:L7 L11:L17 L20:L60">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L8 L9 L10 A38:D38 E38 F38:H38 A39:D39 F39:H39 A8:A9 A18:A19 A28:A29 A48:A49 A58:A59 B48:B49 L1:L7 L11:L17 L20:L60" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M8 M9 M10 I38 B8:B9 B18:B19 B28:B29 M1:M7 M11:M17 M20:M60"/>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 A12:A13 A22:A23 A32:A33 A42:A43 A52:A53 B12:B13 B22:B23 B32:B33 B42:B43 B52:B53 C1:C7 C11:C17 C20:C27 C30:C37 C40:C60 A2:B3">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M8 M9 M10 I38 B8:B9 B18:B19 B28:B29 M1:M7 M11:M17 M20:M60" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 A12:A13 A22:A23 A32:A33 A42:A43 A52:A53 B12:B13 B22:B23 B32:B33 B42:B43 B52:B53 C1:C7 C11:C17 C20:C27 C30:C37 C40:C60 A2:B3" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
